--- a/hồ sơ/tổng hợp_cv.xlsx
+++ b/hồ sơ/tổng hợp_cv.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -289,13 +289,136 @@
   </si>
   <si>
     <t>Cty DeHa</t>
+  </si>
+  <si>
+    <t>TRƯƠNG QUANG THIỆU</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>thieutq.32@gmail.com</t>
+  </si>
+  <si>
+    <t>Chuyên viên PPBL</t>
+  </si>
+  <si>
+    <t>Cty IVT</t>
+  </si>
+  <si>
+    <t>9.000.000</t>
+  </si>
+  <si>
+    <t>PHẠM ĐÌNH LỘC</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>ph.dinhloc@gmail.com</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.000.000 </t>
+  </si>
+  <si>
+    <t>Đỗ Hoàng An</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>dohan9676@gmail.com</t>
+  </si>
+  <si>
+    <t>MKO</t>
+  </si>
+  <si>
+    <t>8.500.000 đ</t>
+  </si>
+  <si>
+    <t>Bùi Thị Lan Anh</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0982 997 692  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                         </t>
+    </r>
+  </si>
+  <si>
+    <t>lananhbui87@gmail.com</t>
+  </si>
+  <si>
+    <t>Trung tâm Thông tin- Ban Tôn giáo Chính phủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Thị Hảo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0982.507.740 </t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haohao591995.haui@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cty Kiến trúc Phong Thủy Tam Nguyên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIỀU CÔNG QUẢNG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0969.000.960 </t>
+  </si>
+  <si>
+    <t>Chuyên viên Quản trị dự án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cty viễn thống Quốc tế HTC-ITC </t>
+  </si>
+  <si>
+    <t>Phạm Thu Giang</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần JVB Việt Nam.</t>
+  </si>
+  <si>
+    <t>phamthugiang1706966@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kieucongquang@gmail.com </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +494,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,6 +566,31 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -711,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -724,7 +885,7 @@
     <col min="3" max="3" width="29.140625" style="5"/>
     <col min="4" max="4" width="35.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="69.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="5" customWidth="1"/>
     <col min="7" max="16384" width="29.140625" style="5"/>
   </cols>
   <sheetData>
@@ -1110,7 +1271,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="5">
@@ -1130,13 +1291,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="10">
         <v>1991</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="17">
         <v>12999779</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1153,13 +1314,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="21" t="s">
         <v>86</v>
       </c>
       <c r="B21" s="13">
         <v>1994</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="18">
         <v>366167337</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1170,6 +1331,161 @@
       </c>
       <c r="F21" s="5" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="19">
+        <v>983015619</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="19">
+        <v>912740868</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="19">
+        <v>837322100</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="24">
+        <v>901784108</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1181,8 +1497,10 @@
     <hyperlink ref="D10" r:id="rId4"/>
     <hyperlink ref="D14" r:id="rId5" display="mailto:xtho.lthuong@gmail.com"/>
     <hyperlink ref="D19" r:id="rId6"/>
+    <hyperlink ref="D28" r:id="rId7"/>
+    <hyperlink ref="D27" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/hồ sơ/tổng hợp_cv.xlsx
+++ b/hồ sơ/tổng hợp_cv.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="THứ 4" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="184">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -222,9 +224,6 @@
     <t>Trần Trung Thành</t>
   </si>
   <si>
-    <t>Bản cứng, chưa gửi lại bản mềm</t>
-  </si>
-  <si>
     <t>Nguyễn Quốc Anh</t>
   </si>
   <si>
@@ -247,9 +246,6 @@
   </si>
   <si>
     <t>Bùi Thế Dũng</t>
-  </si>
-  <si>
-    <t>Hỗ trợ dự án/ Quản trị dự án/ Dev App Mobile</t>
   </si>
   <si>
     <t>11.000.000</t>
@@ -412,6 +408,195 @@
   </si>
   <si>
     <t xml:space="preserve">kieucongquang@gmail.com </t>
+  </si>
+  <si>
+    <t>Xác nhận pv</t>
+  </si>
+  <si>
+    <t>Thời gian pv</t>
+  </si>
+  <si>
+    <t>LĐ</t>
+  </si>
+  <si>
+    <t>Phòng</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Chưa Xác nhận</t>
+  </si>
+  <si>
+    <t>Phòng họp</t>
+  </si>
+  <si>
+    <t>Thứ 4</t>
+  </si>
+  <si>
+    <t>Ngày pv dự kiến</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8h30</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>9h30</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>10h30</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>a Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phòng NOC</t>
+  </si>
+  <si>
+    <t>a. Huyên</t>
+  </si>
+  <si>
+    <t>GPDVBC</t>
+  </si>
+  <si>
+    <t>Phòng GPTCBC</t>
+  </si>
+  <si>
+    <t>Khoảng 10h30 trở đi, sau khi a.Linh phỏng vấn NOC xong.</t>
+  </si>
+  <si>
+    <t>Thời gian hẹn ứng viên</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Thúy</t>
+  </si>
+  <si>
+    <t>nguyenminhthuy0805@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0967272072 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTC Viễn thông quốc tế </t>
+  </si>
+  <si>
+    <t>NGÔ THỊ CẢNH</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>ntcanh.229@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CMC</t>
+  </si>
+  <si>
+    <t>Hỗ trợ dự án/ Quản trị dự án</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phòng GPTCBC</t>
+  </si>
+  <si>
+    <t>a Văn</t>
+  </si>
+  <si>
+    <t>Phòng GPQT, THHT, HCC</t>
+  </si>
+  <si>
+    <t>Phòng HCC</t>
+  </si>
+  <si>
+    <t>a Văn, a Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phòng NOC, ATTT</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Me0pOs2@gmail.com</t>
+  </si>
+  <si>
+    <t>Cty EDG Thương Mại Công Nghệ</t>
+  </si>
+  <si>
+    <t>7.000.000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Bận</t>
+  </si>
+  <si>
+    <t>a Huyên</t>
+  </si>
+  <si>
+    <t>Phòng GPQT</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Như Mây</t>
+  </si>
+  <si>
+    <t>0931128666</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>mayhtn@gmail.com</t>
+  </si>
+  <si>
+    <t>MobiFone</t>
+  </si>
+  <si>
+    <t>Thứ 5</t>
+  </si>
+  <si>
+    <t>Phòng THHT, HCC</t>
+  </si>
+  <si>
+    <t>Thời gian hẹn Ứng viên</t>
+  </si>
+  <si>
+    <t>8h45</t>
+  </si>
+  <si>
+    <t>9h15</t>
+  </si>
+  <si>
+    <t>9h45</t>
+  </si>
+  <si>
+    <t>send mail</t>
+  </si>
+  <si>
+    <t>Bản cứng cv</t>
+  </si>
+  <si>
+    <t>Phòng THHT, HCC, DVBC, GPQT, TCBC-PPBL</t>
+  </si>
+  <si>
+    <t>11h30</t>
   </si>
 </sst>
 </file>
@@ -502,7 +687,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,11 +706,75 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -535,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,12 +800,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,10 +828,145 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -872,635 +1250,3066 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="34" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="26" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="17" style="23" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" style="23" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="40.42578125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="23" customWidth="1"/>
+    <col min="18" max="16384" width="29.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="53" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1995</v>
+      </c>
+      <c r="M2" s="5">
+        <v>355177102</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1984</v>
+      </c>
+      <c r="M3" s="5">
+        <v>936471473</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="70">
+        <v>9636.0963699999993</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="65">
+        <v>1993</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+    </row>
+    <row r="6" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="17">
+        <v>912740868</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="68">
+        <v>901784108</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="65">
+        <v>1995</v>
+      </c>
+      <c r="M10" s="67">
+        <v>397113271</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="17">
+        <v>837322100</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1989</v>
+      </c>
+      <c r="M12" s="5">
+        <v>372553817</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="5" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1984</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1996</v>
+      </c>
+      <c r="M14" s="5">
+        <v>348381996</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="23">
+        <v>1992</v>
+      </c>
+      <c r="M15" s="23">
+        <v>942586358</v>
+      </c>
+      <c r="N15" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:17" s="5" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1981</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="5" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1990</v>
+      </c>
+      <c r="M17" s="5">
+        <v>974698017</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1994</v>
+      </c>
+      <c r="M18" s="16">
+        <v>366167337</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="23">
+        <v>1990</v>
+      </c>
+      <c r="M19" s="23">
+        <v>967467622</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="1:17" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="23">
+        <v>1991</v>
+      </c>
+      <c r="M20" s="23">
+        <v>972398129</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="58">
+        <v>983015619</v>
+      </c>
+      <c r="N21" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1996</v>
+      </c>
+      <c r="M22" s="5">
+        <v>394693918</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="23">
+        <v>1995</v>
+      </c>
+      <c r="M23" s="23">
+        <v>364289198</v>
+      </c>
+      <c r="N23" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="O24" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24" s="59"/>
+    </row>
+    <row r="25" spans="1:17" s="65" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+    </row>
+    <row r="26" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="59">
+        <v>1990</v>
+      </c>
+      <c r="M26" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="65" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="59">
+        <v>1977</v>
+      </c>
+      <c r="M27" s="59">
+        <v>904311442</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+    </row>
+    <row r="28" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="N28" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="P28" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="59"/>
+    </row>
+    <row r="29" spans="1:17" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" s="75">
+        <v>1990</v>
+      </c>
+      <c r="M29" s="76">
+        <v>941297969</v>
+      </c>
+      <c r="N29" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1991</v>
+      </c>
+      <c r="M30" s="15">
+        <v>12999779</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="59">
+        <v>1996</v>
+      </c>
+      <c r="M31" s="59">
+        <v>384772692</v>
+      </c>
+      <c r="N31" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S31">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Có"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Thứ 5"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:Q31">
+      <sortCondition ref="J1:J31"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="https://mail.vnpost.vn/owa/redir.aspx?C=SesU2vF9o0MW1KbFScB7TImNicec711Xa5QkfnoGXkQ3bCqO8CXXCA..&amp;URL=mailto%3aducnt.tmdt%40gmail.com"/>
+    <hyperlink ref="N10" r:id="rId2" display="https://mail.vnpost.vn/owa/redir.aspx?C=Rq6BiZWMtx8IpZyjO4lyQe4I1uBU9uDHzgBnApdYOfIMv9te8SXXCA..&amp;URL=mailto%3adohuongha123%40gmail.com"/>
+    <hyperlink ref="M10" r:id="rId3" display="tel:0397113271"/>
+    <hyperlink ref="N31" r:id="rId4"/>
+    <hyperlink ref="N14" r:id="rId5" display="mailto:xtho.lthuong@gmail.com"/>
+    <hyperlink ref="N23" r:id="rId6"/>
+    <hyperlink ref="N9" r:id="rId7"/>
+    <hyperlink ref="N28" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="5"/>
-    <col min="4" max="4" width="35.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="69.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="29.140625" style="5"/>
+    <col min="2" max="2" width="38.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="36" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" style="5"/>
+    <col min="11" max="11" width="35.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="40.42578125" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="29.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1995</v>
+      </c>
+      <c r="J2" s="5">
+        <v>355177102</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1984</v>
+      </c>
+      <c r="J3" s="5">
+        <v>936471473</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1991</v>
+      </c>
+      <c r="J4" s="5">
+        <v>972398129</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1990</v>
+      </c>
+      <c r="J5" s="5">
+        <v>967467622</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1992</v>
+      </c>
+      <c r="J6" s="5">
+        <v>942586358</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1995</v>
+      </c>
+      <c r="J7" s="5">
+        <v>364289198</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="17">
+        <v>912740868</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="32">
+        <v>983015619</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="38">
+        <v>1990</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="17">
+        <v>837322100</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1989</v>
+      </c>
+      <c r="J12" s="5">
+        <v>372553817</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1984</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1996</v>
+      </c>
+      <c r="J14" s="5">
+        <v>348381996</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="38">
+        <v>1993</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1981</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1990</v>
+      </c>
+      <c r="J17" s="5">
+        <v>974698017</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1994</v>
+      </c>
+      <c r="J18" s="16">
+        <v>366167337</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="49">
+        <v>9636.0963699999993</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="38">
+        <v>1990</v>
+      </c>
+      <c r="J20" s="40">
+        <v>941297969</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1996</v>
+      </c>
+      <c r="J22" s="5">
+        <v>394693918</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="38">
+        <v>1996</v>
+      </c>
+      <c r="J23" s="38">
+        <v>384772692</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="45">
+        <v>1995</v>
+      </c>
+      <c r="J27" s="47">
+        <v>397113271</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="37">
+        <v>901784108</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1977</v>
+      </c>
+      <c r="J29" s="5">
+        <v>904311442</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1991</v>
+      </c>
+      <c r="J30" s="15">
+        <v>12999779</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1981</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1995</v>
-      </c>
-      <c r="C3" s="5">
-        <v>355177102</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1990</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1989</v>
-      </c>
-      <c r="C5" s="5">
-        <v>372553817</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1995</v>
-      </c>
-      <c r="C6" s="6">
-        <v>397113271</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1990</v>
-      </c>
-      <c r="C7" s="5">
-        <v>967467622</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1996</v>
-      </c>
-      <c r="C8" s="5">
-        <v>394693918</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1993</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1996</v>
-      </c>
-      <c r="C10" s="5">
-        <v>384772692</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1990</v>
-      </c>
-      <c r="C11" s="7">
-        <v>941297969</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="L30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1991</v>
-      </c>
-      <c r="C12" s="5">
-        <v>972398129</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1984</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1996</v>
-      </c>
-      <c r="C14" s="5">
-        <v>348381996</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1990</v>
-      </c>
-      <c r="C15" s="5">
-        <v>974698017</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1977</v>
-      </c>
-      <c r="C16" s="5">
-        <v>904311442</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1984</v>
-      </c>
-      <c r="C17" s="5">
-        <v>936471473</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1992</v>
-      </c>
-      <c r="C18" s="5">
-        <v>942586358</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1995</v>
-      </c>
-      <c r="C19" s="5">
-        <v>364289198</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1991</v>
-      </c>
-      <c r="C20" s="17">
-        <v>12999779</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="13">
-        <v>1994</v>
-      </c>
-      <c r="C21" s="18">
-        <v>366167337</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="19">
-        <v>983015619</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="19">
-        <v>912740868</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="19">
-        <v>837322100</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="24">
-        <v>901784108</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>94</v>
+      <c r="C31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E19"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://mail.vnpost.vn/owa/redir.aspx?C=SesU2vF9o0MW1KbFScB7TImNicec711Xa5QkfnoGXkQ3bCqO8CXXCA..&amp;URL=mailto%3aducnt.tmdt%40gmail.com"/>
-    <hyperlink ref="D6" r:id="rId2" display="https://mail.vnpost.vn/owa/redir.aspx?C=Rq6BiZWMtx8IpZyjO4lyQe4I1uBU9uDHzgBnApdYOfIMv9te8SXXCA..&amp;URL=mailto%3adohuongha123%40gmail.com"/>
-    <hyperlink ref="C6" r:id="rId3" display="tel:0397113271"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D14" r:id="rId5" display="mailto:xtho.lthuong@gmail.com"/>
-    <hyperlink ref="D19" r:id="rId6"/>
-    <hyperlink ref="D28" r:id="rId7"/>
-    <hyperlink ref="D27" r:id="rId8"/>
+    <hyperlink ref="K2" r:id="rId1" display="https://mail.vnpost.vn/owa/redir.aspx?C=SesU2vF9o0MW1KbFScB7TImNicec711Xa5QkfnoGXkQ3bCqO8CXXCA..&amp;URL=mailto%3aducnt.tmdt%40gmail.com"/>
+    <hyperlink ref="K27" r:id="rId2" display="https://mail.vnpost.vn/owa/redir.aspx?C=Rq6BiZWMtx8IpZyjO4lyQe4I1uBU9uDHzgBnApdYOfIMv9te8SXXCA..&amp;URL=mailto%3adohuongha123%40gmail.com"/>
+    <hyperlink ref="J27" r:id="rId3" display="tel:0397113271"/>
+    <hyperlink ref="K23" r:id="rId4"/>
+    <hyperlink ref="K14" r:id="rId5" display="mailto:xtho.lthuong@gmail.com"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K28" r:id="rId7"/>
+    <hyperlink ref="K21" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="32.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="17">
+        <v>912740868</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="17">
+        <v>837322100</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1989</v>
+      </c>
+      <c r="K4" s="5">
+        <v>372553817</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1984</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1984</v>
+      </c>
+      <c r="K6" s="5">
+        <v>936471473</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1996</v>
+      </c>
+      <c r="K7" s="5">
+        <v>348381996</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1981</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1990</v>
+      </c>
+      <c r="K9" s="5">
+        <v>974698017</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1994</v>
+      </c>
+      <c r="K10" s="16">
+        <v>366167337</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1996</v>
+      </c>
+      <c r="K11" s="5">
+        <v>394693918</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1" display="mailto:xtho.lthuong@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/hồ sơ/tổng hợp_cv.xlsx
+++ b/hồ sơ/tổng hợp_cv.xlsx
@@ -12,7 +12,7 @@
     <sheet name="THứ 4" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="196">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -597,6 +597,42 @@
   </si>
   <si>
     <t>11h30</t>
+  </si>
+  <si>
+    <t>Kết quản phỏng vấn</t>
+  </si>
+  <si>
+    <t>Trương Quang Thiệu</t>
+  </si>
+  <si>
+    <t>Kiều Công Quảng</t>
+  </si>
+  <si>
+    <t>Ngô Thị Cảnh</t>
+  </si>
+  <si>
+    <t>Phạm Đình Lộc</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Không đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Thắng</t>
+  </si>
+  <si>
+    <t>Đợi kết quả đợt 2</t>
+  </si>
+  <si>
+    <t>Chuyên viên BA</t>
+  </si>
+  <si>
+    <t>Chuyên viên HCC</t>
+  </si>
+  <si>
+    <t>Chuyên viên/ KTV Hạ tầng CNTT ?</t>
   </si>
 </sst>
 </file>
@@ -687,7 +723,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,8 +754,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -779,12 +821,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -900,9 +966,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -912,28 +975,8 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,28 +988,101 @@
     <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1251,1423 +1367,1564 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="34" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="26" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="17" style="23" customWidth="1"/>
-    <col min="14" max="14" width="35.28515625" style="23" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="40.42578125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="23" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="23" customWidth="1"/>
-    <col min="18" max="16384" width="29.140625" style="23"/>
+    <col min="1" max="1" width="30.7109375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="23" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="23" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="23" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="23" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="17" style="23" customWidth="1"/>
+    <col min="15" max="15" width="35.28515625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="40.42578125" style="23" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="23" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="23" customWidth="1"/>
+    <col min="19" max="16384" width="29.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="53" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:20" s="52" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="J1" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="K1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="L1" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="P1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="Q1" s="52" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="64"/>
+    </row>
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>1995</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>355177102</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:20" s="92" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="89">
+        <v>9636.0963699999993</v>
+      </c>
+      <c r="O3" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+    </row>
+    <row r="4" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="86">
+        <v>1993</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="93"/>
+    </row>
+    <row r="5" spans="1:20" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M5" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="90">
+        <v>901784108</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="93"/>
+    </row>
+    <row r="6" spans="1:20" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="86">
+        <v>1989</v>
+      </c>
+      <c r="N6" s="86">
+        <v>372553817</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="93"/>
+    </row>
+    <row r="7" spans="1:20" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="87">
+        <v>1994</v>
+      </c>
+      <c r="N7" s="85">
+        <v>366167337</v>
+      </c>
+      <c r="O7" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="93"/>
+    </row>
+    <row r="8" spans="1:20" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="86">
+        <v>1990</v>
+      </c>
+      <c r="N8" s="86">
+        <v>967467622</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+    </row>
+    <row r="9" spans="1:20" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="86">
+        <v>1990</v>
+      </c>
+      <c r="N9" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="93"/>
+    </row>
+    <row r="10" spans="1:20" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="95">
+        <v>1990</v>
+      </c>
+      <c r="N10" s="95">
+        <v>974698017</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="97"/>
+    </row>
+    <row r="11" spans="1:20" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="95">
+        <v>1995</v>
+      </c>
+      <c r="N11" s="95">
+        <v>364289198</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="95">
+        <v>1996</v>
+      </c>
+      <c r="N12" s="95">
+        <v>394693918</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="95"/>
+    </row>
+    <row r="13" spans="1:20" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B13" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D13" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J13" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="K13" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="L13" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M13" s="56">
         <v>1984</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N13" s="56">
         <v>936471473</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P13" s="56" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="65" t="s">
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+    </row>
+    <row r="14" spans="1:20" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M14" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+    </row>
+    <row r="15" spans="1:20" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="P15" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="23"/>
+    </row>
+    <row r="16" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="59">
+        <v>912740868</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" s="56"/>
+      <c r="T16" s="61"/>
+    </row>
+    <row r="17" spans="1:20" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="56">
+        <v>1995</v>
+      </c>
+      <c r="N17" s="58">
+        <v>397113271</v>
+      </c>
+      <c r="O17" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="61"/>
+    </row>
+    <row r="18" spans="1:20" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="59">
+        <v>837322100</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" s="56"/>
+    </row>
+    <row r="19" spans="1:20" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" s="56">
+        <v>1984</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="1:20" s="55" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="56">
+        <v>1996</v>
+      </c>
+      <c r="N20" s="56">
+        <v>348381996</v>
+      </c>
+      <c r="O20" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="56"/>
+      <c r="S20" s="73"/>
+    </row>
+    <row r="21" spans="1:20" s="55" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65" t="s">
+      <c r="F21" s="56"/>
+      <c r="G21" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="H21" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="I21" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M21" s="56">
+        <v>1992</v>
+      </c>
+      <c r="N21" s="56">
+        <v>942586358</v>
+      </c>
+      <c r="O21" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q21" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="R21" s="56"/>
+      <c r="S21" s="74"/>
+    </row>
+    <row r="22" spans="1:20" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="J22" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="M22" s="56">
+        <v>1981</v>
+      </c>
+      <c r="N22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" s="56"/>
+      <c r="T22" s="61"/>
+    </row>
+    <row r="23" spans="1:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="L4" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" s="70">
-        <v>9636.0963699999993</v>
-      </c>
-      <c r="N4" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="O4" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="65" t="s">
+      <c r="K23" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" s="56">
+        <v>1991</v>
+      </c>
+      <c r="N23" s="56">
+        <v>972398129</v>
+      </c>
+      <c r="O23" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" s="56"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="23"/>
+    </row>
+    <row r="24" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="59">
+        <v>983015619</v>
+      </c>
+      <c r="O24" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q24" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="56"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="55"/>
+    </row>
+    <row r="25" spans="1:20" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65" t="s">
+      <c r="I25" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="S25" s="73"/>
+    </row>
+    <row r="26" spans="1:20" s="56" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="H26" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="65" t="s">
+      <c r="I26" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K5" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="65">
-        <v>1993</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-    </row>
-    <row r="6" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="K26" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M26" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="N26" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" s="75"/>
+    </row>
+    <row r="27" spans="1:20" s="56" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="D27" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="H27" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K6" s="22" t="s">
+      <c r="K27" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="L27" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="M27" s="56">
+        <v>1977</v>
+      </c>
+      <c r="N27" s="56">
+        <v>904311442</v>
+      </c>
+      <c r="O27" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27" s="75"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="L28" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M28" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="O28" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="R28" s="56"/>
+      <c r="S28" s="73"/>
+    </row>
+    <row r="29" spans="1:20" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="D29" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="23" t="s">
+      <c r="H29" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K7" s="22" t="s">
+      <c r="K29" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="17">
-        <v>912740868</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="68">
-        <v>901784108</v>
-      </c>
-      <c r="N9" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J10" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="K10" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="65">
-        <v>1995</v>
-      </c>
-      <c r="M10" s="67">
-        <v>397113271</v>
-      </c>
-      <c r="N10" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-    </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="17">
-        <v>837322100</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1989</v>
-      </c>
-      <c r="M12" s="5">
-        <v>372553817</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1984</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1996</v>
-      </c>
-      <c r="M14" s="5">
-        <v>348381996</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" s="23">
-        <v>1992</v>
-      </c>
-      <c r="M15" s="23">
-        <v>942586358</v>
-      </c>
-      <c r="N15" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q15" s="23"/>
-    </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1981</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="5">
+      <c r="M29" s="56">
         <v>1990</v>
       </c>
-      <c r="M17" s="5">
-        <v>974698017</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1994</v>
-      </c>
-      <c r="M18" s="16">
-        <v>366167337</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="23">
-        <v>1990</v>
-      </c>
-      <c r="M19" s="23">
-        <v>967467622</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-    </row>
-    <row r="20" spans="1:17" s="59" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="23">
-        <v>1991</v>
-      </c>
-      <c r="M20" s="23">
-        <v>972398129</v>
-      </c>
-      <c r="N20" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="23"/>
-    </row>
-    <row r="21" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="M21" s="58">
-        <v>983015619</v>
-      </c>
-      <c r="N21" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="O21" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q21" s="23"/>
-    </row>
-    <row r="22" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1996</v>
-      </c>
-      <c r="M22" s="5">
-        <v>394693918</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="23">
-        <v>1995</v>
-      </c>
-      <c r="M23" s="23">
-        <v>364289198</v>
-      </c>
-      <c r="N23" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="N24" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="O24" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="P24" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q24" s="59"/>
-    </row>
-    <row r="25" spans="1:17" s="65" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="M25" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="O25" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-    </row>
-    <row r="26" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="I26" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="J26" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="59">
-        <v>1990</v>
-      </c>
-      <c r="M26" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59" t="s">
+      <c r="N29" s="78">
+        <v>941297969</v>
+      </c>
+      <c r="O29" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="65" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="J27" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K27" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="L27" s="59">
-        <v>1977</v>
-      </c>
-      <c r="M27" s="59">
-        <v>904311442</v>
-      </c>
-      <c r="N27" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-    </row>
-    <row r="28" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="L28" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M28" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="N28" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="O28" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q28" s="59"/>
-    </row>
-    <row r="29" spans="1:17" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="J29" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K29" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="L29" s="75">
-        <v>1990</v>
-      </c>
-      <c r="M29" s="76">
-        <v>941297969</v>
-      </c>
-      <c r="N29" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="O29" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q29" s="75" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L30" s="8">
+      <c r="M30" s="8">
         <v>1991</v>
       </c>
-      <c r="M30" s="15">
+      <c r="N30" s="15">
         <v>12999779</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="O30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="P30" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="Q30" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="56"/>
+      <c r="G31" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="H31" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="I31" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="J31" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="J31" s="60" t="s">
+      <c r="K31" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="K31" s="60" t="s">
+      <c r="L31" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="L31" s="59">
+      <c r="M31" s="56">
         <v>1996</v>
       </c>
-      <c r="M31" s="59">
+      <c r="N31" s="56">
         <v>384772692</v>
       </c>
-      <c r="N31" s="64" t="s">
+      <c r="O31" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="O31" s="59" t="s">
+      <c r="P31" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S31">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:T31">
+    <filterColumn colId="3">
       <filters>
         <filter val="Có"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Thứ 5"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A4:Q31">
-      <sortCondition ref="J1:J31"/>
+    <sortState ref="A3:T31">
+      <sortCondition ref="B1:B31"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="https://mail.vnpost.vn/owa/redir.aspx?C=SesU2vF9o0MW1KbFScB7TImNicec711Xa5QkfnoGXkQ3bCqO8CXXCA..&amp;URL=mailto%3aducnt.tmdt%40gmail.com"/>
-    <hyperlink ref="N10" r:id="rId2" display="https://mail.vnpost.vn/owa/redir.aspx?C=Rq6BiZWMtx8IpZyjO4lyQe4I1uBU9uDHzgBnApdYOfIMv9te8SXXCA..&amp;URL=mailto%3adohuongha123%40gmail.com"/>
-    <hyperlink ref="M10" r:id="rId3" display="tel:0397113271"/>
-    <hyperlink ref="N31" r:id="rId4"/>
-    <hyperlink ref="N14" r:id="rId5" display="mailto:xtho.lthuong@gmail.com"/>
-    <hyperlink ref="N23" r:id="rId6"/>
-    <hyperlink ref="N9" r:id="rId7"/>
-    <hyperlink ref="N28" r:id="rId8"/>
+    <hyperlink ref="O2" r:id="rId1" display="https://mail.vnpost.vn/owa/redir.aspx?C=SesU2vF9o0MW1KbFScB7TImNicec711Xa5QkfnoGXkQ3bCqO8CXXCA..&amp;URL=mailto%3aducnt.tmdt%40gmail.com"/>
+    <hyperlink ref="O17" r:id="rId2" display="https://mail.vnpost.vn/owa/redir.aspx?C=Rq6BiZWMtx8IpZyjO4lyQe4I1uBU9uDHzgBnApdYOfIMv9te8SXXCA..&amp;URL=mailto%3adohuongha123%40gmail.com"/>
+    <hyperlink ref="N17" r:id="rId3" display="tel:0397113271"/>
+    <hyperlink ref="O31" r:id="rId4"/>
+    <hyperlink ref="O20" r:id="rId5" display="mailto:xtho.lthuong@gmail.com"/>
+    <hyperlink ref="O11" r:id="rId6"/>
+    <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="O28" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
